--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Crhr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.00514833283606</v>
+        <v>0.2125036666666667</v>
       </c>
       <c r="H2">
-        <v>1.00514833283606</v>
+        <v>0.637511</v>
       </c>
       <c r="I2">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="J2">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.316023068813859</v>
+        <v>0.7693313333333333</v>
       </c>
       <c r="N2">
-        <v>0.316023068813859</v>
+        <v>2.307994</v>
       </c>
       <c r="O2">
-        <v>0.3129350707049844</v>
+        <v>0.2551791101080821</v>
       </c>
       <c r="P2">
-        <v>0.3129350707049844</v>
+        <v>0.2551791101080821</v>
       </c>
       <c r="Q2">
-        <v>0.3176500607559858</v>
+        <v>0.1634857292148889</v>
       </c>
       <c r="R2">
-        <v>0.3176500607559858</v>
+        <v>1.471371562934</v>
       </c>
       <c r="S2">
-        <v>0.1985087010264273</v>
+        <v>0.02717018339665996</v>
       </c>
       <c r="T2">
-        <v>0.1985087010264273</v>
+        <v>0.02717018339665996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.00514833283606</v>
+        <v>0.2125036666666667</v>
       </c>
       <c r="H3">
-        <v>1.00514833283606</v>
+        <v>0.637511</v>
       </c>
       <c r="I3">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="J3">
-        <v>0.634344691949113</v>
+        <v>0.1064749515943994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.693844786846799</v>
+        <v>2.245536666666666</v>
       </c>
       <c r="N3">
-        <v>0.693844786846799</v>
+        <v>6.736609999999999</v>
       </c>
       <c r="O3">
-        <v>0.6870649292950156</v>
+        <v>0.7448208898919179</v>
       </c>
       <c r="P3">
-        <v>0.6870649292950156</v>
+        <v>0.7448208898919177</v>
       </c>
       <c r="Q3">
-        <v>0.6974169307460514</v>
+        <v>0.477184775301111</v>
       </c>
       <c r="R3">
-        <v>0.6974169307460514</v>
+        <v>4.29466297771</v>
       </c>
       <c r="S3">
-        <v>0.4358359909226858</v>
+        <v>0.07930476819773943</v>
       </c>
       <c r="T3">
-        <v>0.4358359909226858</v>
+        <v>0.07930476819773943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.142366784990582</v>
+        <v>1.193141333333333</v>
       </c>
       <c r="H4">
-        <v>0.142366784990582</v>
+        <v>3.579424</v>
       </c>
       <c r="I4">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="J4">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.316023068813859</v>
+        <v>0.7693313333333333</v>
       </c>
       <c r="N4">
-        <v>0.316023068813859</v>
+        <v>2.307994</v>
       </c>
       <c r="O4">
-        <v>0.3129350707049844</v>
+        <v>0.2551791101080821</v>
       </c>
       <c r="P4">
-        <v>0.3129350707049844</v>
+        <v>0.2551791101080821</v>
       </c>
       <c r="Q4">
-        <v>0.04499118828988657</v>
+        <v>0.9179210128284444</v>
       </c>
       <c r="R4">
-        <v>0.04499118828988657</v>
+        <v>8.261289115456</v>
       </c>
       <c r="S4">
-        <v>0.02811629352062854</v>
+        <v>0.1525520446461413</v>
       </c>
       <c r="T4">
-        <v>0.02811629352062854</v>
+        <v>0.1525520446461413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.142366784990582</v>
+        <v>1.193141333333333</v>
       </c>
       <c r="H5">
-        <v>0.142366784990582</v>
+        <v>3.579424</v>
       </c>
       <c r="I5">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="J5">
-        <v>0.08984705184141799</v>
+        <v>0.597823405613129</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.693844786846799</v>
+        <v>2.245536666666666</v>
       </c>
       <c r="N5">
-        <v>0.693844786846799</v>
+        <v>6.736609999999999</v>
       </c>
       <c r="O5">
-        <v>0.6870649292950156</v>
+        <v>0.7448208898919179</v>
       </c>
       <c r="P5">
-        <v>0.6870649292950156</v>
+        <v>0.7448208898919177</v>
       </c>
       <c r="Q5">
-        <v>0.09878045158585443</v>
+        <v>2.679242612515555</v>
       </c>
       <c r="R5">
-        <v>0.09878045158585443</v>
+        <v>24.11318351264</v>
       </c>
       <c r="S5">
-        <v>0.06173075832078945</v>
+        <v>0.4452713609669877</v>
       </c>
       <c r="T5">
-        <v>0.06173075832078945</v>
+        <v>0.4452713609669876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.437030864181343</v>
+        <v>0.1501633333333333</v>
       </c>
       <c r="H6">
-        <v>0.437030864181343</v>
+        <v>0.45049</v>
       </c>
       <c r="I6">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="J6">
-        <v>0.275808256209469</v>
+        <v>0.07523933068411523</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.316023068813859</v>
+        <v>0.7693313333333333</v>
       </c>
       <c r="N6">
-        <v>0.316023068813859</v>
+        <v>2.307994</v>
       </c>
       <c r="O6">
-        <v>0.3129350707049844</v>
+        <v>0.2551791101080821</v>
       </c>
       <c r="P6">
-        <v>0.3129350707049844</v>
+        <v>0.2551791101080821</v>
       </c>
       <c r="Q6">
-        <v>0.1381118348649608</v>
+        <v>0.1155253574511111</v>
       </c>
       <c r="R6">
-        <v>0.1381118348649608</v>
+        <v>1.03972821706</v>
       </c>
       <c r="S6">
-        <v>0.08631007615792866</v>
+        <v>0.01919950544910024</v>
       </c>
       <c r="T6">
-        <v>0.08631007615792866</v>
+        <v>0.01919950544910024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1501633333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.45049</v>
+      </c>
+      <c r="I7">
+        <v>0.07523933068411523</v>
+      </c>
+      <c r="J7">
+        <v>0.07523933068411523</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.245536666666666</v>
+      </c>
+      <c r="N7">
+        <v>6.736609999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.7448208898919179</v>
+      </c>
+      <c r="P7">
+        <v>0.7448208898919177</v>
+      </c>
+      <c r="Q7">
+        <v>0.3371972709888889</v>
+      </c>
+      <c r="R7">
+        <v>3.0347754389</v>
+      </c>
+      <c r="S7">
+        <v>0.05603982523501499</v>
+      </c>
+      <c r="T7">
+        <v>0.05603982523501498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.437030864181343</v>
-      </c>
-      <c r="H7">
-        <v>0.437030864181343</v>
-      </c>
-      <c r="I7">
-        <v>0.275808256209469</v>
-      </c>
-      <c r="J7">
-        <v>0.275808256209469</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.693844786846799</v>
-      </c>
-      <c r="N7">
-        <v>0.693844786846799</v>
-      </c>
-      <c r="O7">
-        <v>0.6870649292950156</v>
-      </c>
-      <c r="P7">
-        <v>0.6870649292950156</v>
-      </c>
-      <c r="Q7">
-        <v>0.3032315868033763</v>
-      </c>
-      <c r="R7">
-        <v>0.3032315868033763</v>
-      </c>
-      <c r="S7">
-        <v>0.1894981800515404</v>
-      </c>
-      <c r="T7">
-        <v>0.1894981800515404</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4400006666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.320002</v>
+      </c>
+      <c r="I8">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="J8">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7693313333333333</v>
+      </c>
+      <c r="N8">
+        <v>2.307994</v>
+      </c>
+      <c r="O8">
+        <v>0.2551791101080821</v>
+      </c>
+      <c r="P8">
+        <v>0.2551791101080821</v>
+      </c>
+      <c r="Q8">
+        <v>0.3385062995542222</v>
+      </c>
+      <c r="R8">
+        <v>3.046556695988</v>
+      </c>
+      <c r="S8">
+        <v>0.05625737661618065</v>
+      </c>
+      <c r="T8">
+        <v>0.05625737661618065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4400006666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.320002</v>
+      </c>
+      <c r="I9">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="J9">
+        <v>0.2204623121083564</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.245536666666666</v>
+      </c>
+      <c r="N9">
+        <v>6.736609999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.7448208898919179</v>
+      </c>
+      <c r="P9">
+        <v>0.7448208898919177</v>
+      </c>
+      <c r="Q9">
+        <v>0.9880376303577777</v>
+      </c>
+      <c r="R9">
+        <v>8.892338673219999</v>
+      </c>
+      <c r="S9">
+        <v>0.1642049354921757</v>
+      </c>
+      <c r="T9">
+        <v>0.1642049354921757</v>
       </c>
     </row>
   </sheetData>
